--- a/1_labeling/2_new/NeedlabelingCode.xlsx
+++ b/1_labeling/2_new/NeedlabelingCode.xlsx
@@ -21,103 +21,7 @@
     <author>(주)유니콤넷</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유니콤넷</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-status (pure, cloudy, overlap, cut),
-size, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>좌표값</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>저장</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,74 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유니콤넷</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-seongnam1111_txt&gt;
-seongnam1111_000001_000001.txt)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,32 +161,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t>[ Labeling ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeVideoToImg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CvatxmlToTxt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CropPerson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,16 +192,6 @@
   </si>
   <si>
     <t>동영상 -&gt; 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoDir 
-(seongnam1111_video)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resDir 
-(seongnam1111_img)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,59 +205,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cvatxml -&gt; txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cvatxmlDir
-(seongnam1111_cvatxml)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resDir
-(seongnam1111_txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건에 맞는 객체 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtDir
-(seongnam1111_txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>imgDir
 (seongnam1111_img)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resDir
-(seongnam1111_condition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 객체 증강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resDir
-(seongnam1111_rotation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 이미지 장수와 객체 개수 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>att 작업에 필요한 person dataset 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resDir
-(seongnam1111_condition&gt;
-size/status&gt;analysis)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,21 +230,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>저장 파일 장수
+(dafault 500장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 폴더 이름
+(att_seongnam1111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환 각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip 파일 내 원하는 파일 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir 
+(seongnam1111_img)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>resDir
-(seongnam1111_condition&gt;
-size/status&gt;img, txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resDir
-(seongnam1111_rotation&gt;
-img, txt)</t>
+(seongnam1111_txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imglist.txt 셔플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ Labeling Code ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipDir 지우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resDir
 (seongnam1111_txt&gt;
-seongnam1111_000001_000001.txt)</t>
+모든 yolo txt 파일 복사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flipping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 객체 증강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvatxmlDir
+(seongnam1111_cvatxml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,33 +317,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저장 파일 장수
-(dafault 500장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장 폴더 이름
-(att_seongnam1111)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체 상태
-(pure, cloudy, overlap, cut)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resDir
-(seongnam1111_condition&gt;
-size/status&gt;analysis&gt;
-seongnam1111_size/status_analysis.txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변환 각도</t>
+(seongnam1111_dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeTotalDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalDataset 폴더에 img, txt파일 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111_dataset&gt;
+total_dataset&gt;
+모든 img, txt 파일 복사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalDataset 을 train/val/test Dataset으로 쪼개기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111_dataset&gt;train/val/test dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalDataset 지우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 폴더까지만 
+데이터를 가지고오는 부분은 
+해결하지 못 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111_dataset&gt;
+analysis_total_dataset.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(shuffle_total_dataset_list.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 파일 이름
+(shuffle_total_dataset_list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111_flipping)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtDIr
+(seongnam1111_txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtDir
+(seongnam1111_txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgDir
+(seongnam1111_img)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imglist.txt 파일
+(total_dataset_list.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoDir 
+(seongnam1111_video)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvatxmlDir
+(seongnam1111_cvatxml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalDataset
+(seongnam1111_dataset&gt;total_dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resDir
+(seongnam1111_flipping&gt;
+seongnam1111_img_flipping,
+seongnam1111_txt_flipping)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,13 +482,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,8 +499,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -833,17 +763,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -862,32 +781,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,50 +829,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,209 +1225,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="J4" s="27" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37"/>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="31"/>
+      <c r="C12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
+    <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="19"/>
     </row>
-    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>29</v>
+    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_labeling/2_new/NeedlabelingCode.xlsx
+++ b/1_labeling/2_new/NeedlabelingCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="16155" windowHeight="11670"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,12 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 폴더까지만 
-데이터를 가지고오는 부분은 
-해결하지 못 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resDir
 (seongnam1111_dataset&gt;
 analysis_total_dataset.txt)</t>
@@ -437,6 +431,26 @@
 (seongnam1111_flipping&gt;
 seongnam1111_img_flipping,
 seongnam1111_txt_flipping)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombineDataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 dataset 폴더에 새로운 dataset 복사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originDatasetDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDatasetDir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,38 +900,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1241,24 +1255,26 @@
     <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="2:10" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
       <c r="C3" s="24" t="s">
         <v>28</v>
@@ -1270,18 +1286,21 @@
       <c r="F3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="H3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="I3" s="23"/>
       <c r="J3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
         <v>1</v>
@@ -1302,13 +1321,16 @@
         <v>22</v>
       </c>
       <c r="I4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="K4" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1331,86 +1353,97 @@
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
+    <row r="7" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>56</v>
+      <c r="I7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
+    <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="38"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+    <row r="9" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37"/>
+    <row r="10" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>34</v>
@@ -1427,17 +1460,18 @@
         <v>40</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+    <row r="11" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1452,15 +1486,16 @@
         <v>41</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="31"/>
+    <row r="12" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
       <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1469,13 +1504,14 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -1485,7 +1521,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>37</v>
@@ -1494,17 +1530,20 @@
         <v>40</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
+    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="36"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
         <v>25</v>
@@ -1516,17 +1555,16 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="19"/>
     </row>
-    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="F16" s="25" t="s">
-        <v>43</v>
-      </c>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B6:B10"/>
   </mergeCells>
